--- a/src/Pickles/MIL_pickles/Output/AN160_TestScript_Desktop_Security_System_FR_NFR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN160_TestScript_Desktop_Security_System_FR_NFR.xlsx
@@ -7,7 +7,7 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="TOC" sheetId="2" r:id="rId2"/>
-    <x:sheet name="ENCRYPTTRAFFIC" sheetId="3" r:id="rId3"/>
+    <x:sheet name="USERDATA" sheetId="3" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <x:si>
-    <x:t>EncryptTraffic</x:t>
+    <x:t>UserData</x:t>
   </x:si>
   <x:si>
     <x:t>Tags:</x:t>
@@ -41,7 +41,7 @@
     <x:t xml:space="preserve">Then </x:t>
   </x:si>
   <x:si>
-    <x:t>all customers details are storred securely and exclusively on Stripe</x:t>
+    <x:t>other than on the local computer, customer details are storred securely and exclusively on CryptoLens and Stripe</x:t>
   </x:si>
   <x:si>
     <x:t>nonfunctional</x:t>
@@ -465,7 +465,7 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="B2" location="'ENCRYPTTRAFFIC'!A1" display="EncryptTraffic"/>
+    <x:hyperlink ref="B2" location="'USERDATA'!A1" display="UserData"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
